--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414FFFB-B906-2F4D-9AAE-2623E3E60CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EBAAB-D568-C849-99A7-01130722E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" firstSheet="3" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="281">
   <si>
     <t>Epoch</t>
   </si>
@@ -504,12 +504,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -522,18 +516,12 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>businessTherapeuticAreas</t>
   </si>
   <si>
@@ -898,6 +886,12 @@
   </si>
   <si>
     <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>NO-ACTIVITY-1</t>
   </si>
 </sst>
 </file>
@@ -969,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1007,9 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1037,10 +1028,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1361,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,267 +1368,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" s="1"/>
     </row>
   </sheetData>
@@ -1717,29 +1648,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -1748,7 +1679,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1779,63 +1710,63 @@
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
+      <c r="B1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1867,138 +1798,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2024,105 +1955,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>206</v>
+      <c r="B1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2146,18 +2077,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2183,22 +2114,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2213,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2233,7 +2164,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2263,116 +2194,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>227</v>
+      <c r="A12" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2392,16 +2323,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,16 +2340,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,16 +2366,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2468,20 +2399,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,16 +2420,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,13 +2440,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,14 +2473,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>264</v>
+      <c r="A1" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,10 +2488,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2499,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,10 +2521,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2622,13 +2553,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>182</v>
+      <c r="A1" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2637,22 +2568,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2672,13 +2603,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>186</v>
+      <c r="A3" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2700,7 +2631,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2722,7 +2653,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2744,7 +2675,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2766,30 +2697,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>224</v>
+      <c r="C7" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>225</v>
+      <c r="C8" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -2803,14 +2734,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>226</v>
+      <c r="C9" s="23" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2878,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EBAAB-D568-C849-99A7-01130722E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E33CC3-E9C6-164C-98AA-66FD3C181A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="285">
   <si>
     <t>Epoch</t>
   </si>
@@ -321,9 +321,6 @@
     <t>endpointDescription</t>
   </si>
   <si>
-    <t>endpointPurposeDescription</t>
-  </si>
-  <si>
     <t>endpointLevel</t>
   </si>
   <si>
@@ -892,6 +889,21 @@
   </si>
   <si>
     <t>NO-ACTIVITY-1</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -963,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -984,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1028,10 +1037,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1352,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1368,11 +1377,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1380,7 +1389,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
@@ -1392,10 +1401,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3"/>
@@ -1404,10 +1413,10 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E4"/>
@@ -1416,10 +1425,10 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E5"/>
@@ -1428,11 +1437,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>144</v>
+      <c r="A6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1440,11 +1449,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>145</v>
+      <c r="A7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1452,11 +1461,11 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1464,53 +1473,53 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
+      <c r="A9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="20" t="s">
-        <v>151</v>
+      <c r="H9" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
+      <c r="A10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
+      <c r="A11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1518,10 +1527,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E13"/>
@@ -1530,11 +1539,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>151</v>
+      <c r="A14" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1595,91 +1604,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1708,65 +1717,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1798,138 +1807,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1955,105 +1964,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2077,18 +2086,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2114,22 +2123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2144,7 +2153,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2164,7 +2173,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -2194,116 +2203,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>223</v>
+      <c r="A12" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2323,16 +2332,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2340,16 +2349,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2366,16 +2375,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2399,20 +2408,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2420,16 +2429,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,17 +2449,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2473,14 +2482,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,10 +2497,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2508,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,10 +2530,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2553,13 +2562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2568,22 +2577,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2603,13 +2612,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2629,9 +2638,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2651,9 +2660,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2673,9 +2682,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2695,32 +2704,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -2734,14 +2743,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>222</v>
+      <c r="C9" s="22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2821,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -2835,7 +2844,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -2849,7 +2858,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -2863,7 +2872,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -2877,7 +2886,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -2988,407 +2997,564 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E33CC3-E9C6-164C-98AA-66FD3C181A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5E1B1-93D3-8E43-B66A-5F5CD0A73EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>AP1234</t>
   </si>
   <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
-  </si>
-  <si>
     <t>organisationAddress</t>
   </si>
   <si>
@@ -904,6 +898,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1037,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1378,10 +1378,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1417,7 +1417,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1429,7 +1429,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1474,52 +1474,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1605,90 +1605,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1717,65 +1717,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1808,137 +1808,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1965,104 +1965,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2086,18 +2086,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2139,7 +2139,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2153,33 +2153,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +2204,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2228,41 +2228,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2273,7 +2273,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2284,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2332,16 +2332,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2349,16 +2349,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,16 +2375,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2409,19 +2409,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,16 +2429,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,13 +2449,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,13 +2483,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,10 +2530,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2563,10 +2563,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -2707,29 +2707,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -2750,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2830,72 +2830,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2922,72 +2922,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -3019,85 +3019,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3106,16 +3106,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3124,16 +3124,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3142,16 +3142,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3160,16 +3160,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3178,16 +3178,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3196,16 +3196,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3214,16 +3214,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3232,16 +3232,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3250,16 +3250,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3268,16 +3268,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5E1B1-93D3-8E43-B66A-5F5CD0A73EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB17D0-FFF8-F040-9F3B-02EE3B282C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
-    <sheet name="configuration" sheetId="10" r:id="rId14"/>
+    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId7"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
+    <sheet name="configuration" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="323">
   <si>
     <t>Epoch</t>
   </si>
@@ -231,36 +232,18 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
   </si>
   <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>populationDescription</t>
   </si>
   <si>
@@ -904,13 +887,145 @@
   </si>
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -948,6 +1063,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -975,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1037,14 +1158,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,10 +1501,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1438,10 +1561,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1450,10 +1573,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1462,10 +1585,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1474,52 +1597,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1528,7 +1651,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1540,10 +1663,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1586,6 +1709,573 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1605,90 +2295,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1717,65 +2407,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1788,7 +2478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1808,137 +2498,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1965,104 +2655,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2086,18 +2776,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -2153,13 +2843,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2173,13 +2863,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +2894,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -2215,10 +2905,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2228,41 +2918,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -2273,7 +2963,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2284,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2292,10 +2982,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2303,7 +2993,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2312,7 +3002,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -2332,16 +3022,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2349,16 +3039,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2375,16 +3065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2409,19 +3099,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,16 +3119,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,13 +3139,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,13 +3173,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +3187,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +3198,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +3209,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,10 +3220,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2563,10 +3253,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -2587,10 +3277,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -2613,10 +3303,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -2707,29 +3397,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -2750,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2815,87 +3505,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" t="s">
+        <v>309</v>
+      </c>
+      <c r="N2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P2" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" t="s">
+        <v>313</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P3" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" t="s">
+        <v>313</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2904,6 +3719,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2922,642 +3799,75 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:K36"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="70.5" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB17D0-FFF8-F040-9F3B-02EE3B282C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3070EB-E8BC-9248-B02C-851D36306D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="325">
   <si>
     <t>Epoch</t>
   </si>
@@ -247,48 +247,18 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1019,6 +989,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -1154,20 +1160,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,10 +1507,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1561,10 +1567,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1573,10 +1579,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1585,10 +1591,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1597,52 +1603,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1663,10 +1669,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1732,85 +1738,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1819,16 +1825,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1837,16 +1843,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1855,16 +1861,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1873,16 +1879,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1891,16 +1897,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1909,16 +1915,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1927,16 +1933,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1945,16 +1951,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1963,16 +1969,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1981,16 +1987,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2295,90 +2301,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2407,65 +2413,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2498,137 +2504,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2655,104 +2661,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2776,18 +2782,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2843,13 +2849,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2863,13 +2869,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2894,115 +2900,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3022,16 +3028,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3039,16 +3045,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3065,16 +3071,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3099,19 +3105,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3119,16 +3125,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3139,13 +3145,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3173,13 +3179,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,10 +3193,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,10 +3204,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,10 +3226,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3253,10 +3259,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3267,20 +3273,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3303,10 +3309,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3397,29 +3403,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3440,7 +3446,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3508,7 +3514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3538,179 +3544,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" t="s">
         <v>298</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>299</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>300</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="P2" t="s">
         <v>302</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="24" t="s">
         <v>304</v>
-      </c>
-      <c r="I2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M2" t="s">
-        <v>309</v>
-      </c>
-      <c r="N2" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" t="s">
-        <v>311</v>
-      </c>
-      <c r="P2" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" t="s">
-        <v>313</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L3" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" t="s">
         <v>300</v>
       </c>
-      <c r="E3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>301</v>
+      </c>
+      <c r="P3" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>303</v>
       </c>
-      <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K3" t="s">
-        <v>320</v>
-      </c>
-      <c r="L3" t="s">
-        <v>321</v>
-      </c>
-      <c r="M3" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" t="s">
-        <v>310</v>
-      </c>
-      <c r="O3" t="s">
-        <v>311</v>
-      </c>
-      <c r="P3" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>313</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>314</v>
+      <c r="S3" s="24" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3735,13 +3741,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>61</v>
@@ -3749,13 +3755,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3763,13 +3769,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -3782,89 +3788,96 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3070EB-E8BC-9248-B02C-851D36306D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20189C81-9062-114E-A014-9BF7BD253861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="322">
   <si>
     <t>Epoch</t>
   </si>
@@ -247,18 +247,12 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>70 years</t>
-  </si>
-  <si>
     <t>objectiveDescription</t>
   </si>
   <si>
@@ -1000,12 +994,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1018,13 +1006,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1157,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1507,10 +1498,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1567,10 +1558,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1579,10 +1570,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1591,10 +1582,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1603,52 +1594,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1657,7 +1648,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -1669,10 +1660,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1738,85 +1729,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1825,16 +1816,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1843,16 +1834,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1861,16 +1852,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1879,16 +1870,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1897,16 +1888,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1915,16 +1906,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1933,16 +1924,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1951,16 +1942,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1969,16 +1960,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1987,16 +1978,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2301,90 +2292,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2413,65 +2404,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2504,137 +2495,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2661,104 +2652,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2782,18 +2773,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2849,13 +2840,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2869,13 +2860,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2900,10 +2891,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2911,10 +2902,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2924,41 +2915,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2969,7 +2960,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2980,7 +2971,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2988,10 +2979,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2999,7 +2990,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3008,7 +2999,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -3028,16 +3019,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,16 +3036,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3071,16 +3062,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3105,19 +3096,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3125,16 +3116,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3145,13 +3136,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3179,13 +3170,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3193,10 +3184,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3204,10 +3195,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3215,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3226,10 +3217,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3259,10 +3250,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -3283,10 +3274,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -3309,10 +3300,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -3403,29 +3394,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3446,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,179 +3535,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>289</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" t="s">
         <v>292</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>293</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>294</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>295</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>296</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>297</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>298</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>299</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>300</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>301</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
         <v>305</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" t="s">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3" t="s">
         <v>307</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>308</v>
       </c>
-      <c r="I3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>309</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" t="s">
         <v>310</v>
       </c>
-      <c r="L3" t="s">
-        <v>311</v>
-      </c>
-      <c r="M3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>301</v>
       </c>
-      <c r="P3" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" t="s">
-        <v>303</v>
-      </c>
       <c r="S3" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3741,13 +3732,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>61</v>
@@ -3755,13 +3746,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3769,13 +3760,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -3788,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,45 +3792,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>314</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="B2" t="s">
         <v>315</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" t="s">
-        <v>319</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3847,37 +3835,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
         <v>320</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" t="s">
         <v>321</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20189C81-9062-114E-A014-9BF7BD253861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E4B58-0949-8947-83EE-B67A2F381473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyDesignTiming" sheetId="17" r:id="rId7"/>
+    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,10 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="322">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="348">
   <si>
     <t>Screening</t>
   </si>
@@ -61,15 +59,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -79,9 +68,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -94,36 +80,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -649,12 +611,6 @@
     <t>E5</t>
   </si>
   <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
     <t>BC/Procedure/Timeline</t>
   </si>
   <si>
@@ -1016,6 +972,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1157,13 +1236,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,9 +1259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1223,7 +1299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1329,7 +1405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1471,7 +1547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1498,10 +1574,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1510,10 +1586,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1522,10 +1598,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -1534,10 +1610,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1546,10 +1622,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1558,10 +1634,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1570,10 +1646,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1582,10 +1658,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1594,52 +1670,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1648,10 +1724,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1660,10 +1736,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1706,6 +1782,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -1729,85 +1894,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1816,16 +1981,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1834,16 +1999,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1852,16 +2017,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1870,16 +2035,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1888,16 +2053,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1906,16 +2071,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1924,16 +2089,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -1942,16 +2107,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1960,16 +2125,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1978,16 +2143,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2272,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2292,90 +2457,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2404,65 +2569,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2495,137 +2660,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2652,104 +2817,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2773,18 +2938,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2811,62 +2976,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +3056,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2902,10 +3067,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2913,43 +3078,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2957,10 +3122,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2968,10 +3133,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2979,10 +3144,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2990,7 +3155,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2999,53 +3164,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3062,16 +3227,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3096,53 +3261,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,57 +3335,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3236,13 +3401,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -3250,258 +3415,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>243</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC2826C-C481-A544-B189-16EC281699E9}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3535,179 +3877,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="Q1" s="22" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" t="s">
         <v>286</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="24" t="s">
         <v>287</v>
-      </c>
-      <c r="D2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" t="s">
-        <v>297</v>
-      </c>
-      <c r="N2" t="s">
-        <v>298</v>
-      </c>
-      <c r="O2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
         <v>291</v>
       </c>
-      <c r="H3" t="s">
-        <v>306</v>
-      </c>
       <c r="I3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" t="s">
         <v>293</v>
       </c>
-      <c r="J3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K3" t="s">
-        <v>308</v>
-      </c>
       <c r="L3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="M3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="O3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +4057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3732,133 +4074,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E4B58-0949-8947-83EE-B67A2F381473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED94DC1D-4CD4-174D-B2AA-87F391C9AAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="347">
   <si>
     <t>Screening</t>
   </si>
@@ -875,18 +875,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -923,12 +917,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1095,6 +1083,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1233,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,9 +1256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1299,7 +1296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1405,7 +1402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1547,7 +1544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1802,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>243</v>
@@ -1814,13 +1811,13 @@
         <v>252</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>52</v>
@@ -1828,10 +1825,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1845,24 +1842,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
         <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3080,34 +3077,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3227,16 +3224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3424,19 +3421,19 @@
         <v>243</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>196</v>
@@ -3476,7 +3473,7 @@
         <v>252</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3485,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>196</v>
@@ -3497,46 +3494,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3548,7 +3545,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3570,7 +3567,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>181</v>
@@ -3661,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC2826C-C481-A544-B189-16EC281699E9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3687,123 +3684,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" t="s">
         <v>331</v>
-      </c>
-      <c r="I3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3811,31 +3808,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
         <v>196</v>
       </c>
       <c r="D6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" t="s">
         <v>342</v>
       </c>
-      <c r="E6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" t="s">
-        <v>346</v>
-      </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3847,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3948,49 +3945,49 @@
         <v>273</v>
       </c>
       <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" t="s">
         <v>275</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" t="s">
         <v>276</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>277</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>278</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>279</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>280</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>281</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>282</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>283</v>
-      </c>
-      <c r="O2" t="s">
-        <v>284</v>
-      </c>
-      <c r="P2" t="s">
-        <v>285</v>
       </c>
       <c r="Q2" t="s">
         <v>159</v>
       </c>
       <c r="R2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3998,58 +3995,58 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
         <v>273</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P3" t="s">
         <v>291</v>
-      </c>
-      <c r="I3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" t="s">
-        <v>283</v>
-      </c>
-      <c r="O3" t="s">
-        <v>284</v>
-      </c>
-      <c r="P3" t="s">
-        <v>295</v>
       </c>
       <c r="Q3" t="s">
         <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED94DC1D-4CD4-174D-B2AA-87F391C9AAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E3378-2376-134F-BEA6-E708E7B8C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Secondary Objective</t>
-  </si>
-  <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
   </si>
   <si>
@@ -1092,6 +1086,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1233,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,9 +1256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1296,7 +1296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1402,7 +1402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1544,7 +1544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1571,10 +1571,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1667,52 +1667,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1799,25 +1799,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>52</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1842,24 +1842,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1891,34 +1891,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>57</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1934,42 +1934,42 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1978,16 +1978,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1996,16 +1996,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2014,16 +2014,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2032,16 +2032,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2050,16 +2050,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2068,16 +2068,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2086,16 +2086,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2104,16 +2104,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2122,16 +2122,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2140,16 +2140,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2454,90 +2454,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2566,65 +2566,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2657,137 +2657,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2814,104 +2814,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2935,18 +2935,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3002,13 +3002,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3022,13 +3022,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3053,10 +3053,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -3077,41 +3077,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3122,7 +3122,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -3133,7 +3133,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -3141,10 +3141,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -3181,16 +3181,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3198,16 +3198,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,16 +3224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3258,19 +3258,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,16 +3278,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3298,13 +3298,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3332,13 +3332,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,10 +3346,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,10 +3357,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,10 +3379,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3412,36 +3412,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -3450,30 +3450,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3482,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,46 +3494,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3545,7 +3545,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3567,22 +3567,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3672,135 +3672,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
         <v>325</v>
-      </c>
-      <c r="E2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
         <v>328</v>
       </c>
-      <c r="B3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" t="s">
-        <v>330</v>
-      </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
         <v>332</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
         <v>333</v>
-      </c>
-      <c r="C4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
         <v>336</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" t="s">
-        <v>339</v>
-      </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3808,31 +3808,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
         <v>340</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3874,179 +3874,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
         <v>271</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>273</v>
       </c>
-      <c r="E2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" t="s">
         <v>274</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>275</v>
       </c>
-      <c r="H2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>276</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>277</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>278</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>279</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>280</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>281</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
         <v>282</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" t="s">
-        <v>284</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" t="s">
-        <v>346</v>
-      </c>
-      <c r="I3" t="s">
-        <v>276</v>
-      </c>
       <c r="J3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" t="s">
         <v>288</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" t="s">
         <v>289</v>
       </c>
-      <c r="L3" t="s">
-        <v>290</v>
-      </c>
-      <c r="M3" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" t="s">
-        <v>281</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
         <v>282</v>
       </c>
-      <c r="P3" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" t="s">
-        <v>284</v>
-      </c>
       <c r="S3" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4071,13 +4071,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>48</v>
@@ -4085,13 +4085,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E3378-2376-134F-BEA6-E708E7B8C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BEFDC3-1CA4-9C40-9C48-DD2261E33F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="347">
   <si>
     <t>Screening</t>
   </si>
@@ -1233,10 +1233,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1871,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3077,34 +3077,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -3224,16 +3224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,11 +3394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3597,9 +3597,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3623,9 +3621,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BEFDC3-1CA4-9C40-9C48-DD2261E33F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE553F9C-7AFD-4B4F-9F5E-416253A56A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="28360" yWindow="3460" windowWidth="33260" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
   <si>
     <t>Screening</t>
   </si>
@@ -1092,13 +1092,22 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1124,14 +1133,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1169,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1197,10 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1227,16 +1224,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1567,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>241</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1582,7 +1579,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -1594,10 +1591,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
@@ -1606,7 +1603,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1618,7 +1615,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1630,7 +1627,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1642,7 +1639,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1654,10 +1651,10 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E8"/>
@@ -1666,7 +1663,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1675,12 +1672,12 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1694,7 +1691,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1708,7 +1705,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1720,10 +1717,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
@@ -1732,7 +1729,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1798,28 +1795,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1890,37 +1887,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2436,49 +2433,56 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2488,33 +2492,47 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="I3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="I4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -2524,20 +2542,26 @@
       <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>136</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2568,22 +2592,22 @@
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2656,28 +2680,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2813,19 +2837,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2972,22 +2996,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3052,115 +3076,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -3224,16 +3248,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3257,19 +3281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3331,13 +3355,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3394,7 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -3411,13 +3435,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>241</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3437,13 +3461,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3463,13 +3487,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3489,8 +3513,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3510,8 +3534,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3531,8 +3555,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D6" s="2"/>
@@ -3544,7 +3568,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3566,7 +3590,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>315</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3586,13 +3610,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3869,61 +3893,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3943,7 +3967,7 @@
       <c r="E2" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>272</v>
       </c>
       <c r="G2" t="s">
@@ -3982,7 +4006,7 @@
       <c r="R2" t="s">
         <v>282</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="22" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4002,7 +4026,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>272</v>
       </c>
       <c r="G3" t="s">
@@ -4041,7 +4065,7 @@
       <c r="R3" t="s">
         <v>282</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="22" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4066,16 +4090,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>48</v>
       </c>
     </row>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE553F9C-7AFD-4B4F-9F5E-416253A56A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098876D-C1F1-FB45-BEF1-7B9B504D8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28360" yWindow="3460" windowWidth="33260" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="48840" windowHeight="26960" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignTiming" sheetId="17" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyOrganizations" sheetId="18" r:id="rId2"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId6"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
+    <sheet name="studyDesignTiming" sheetId="17" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="352">
   <si>
     <t>Screening</t>
   </si>
@@ -1101,6 +1102,12 @@
   </si>
   <si>
     <t>ICE Text</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>organization</t>
   </si>
 </sst>
 </file>
@@ -1776,6 +1783,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1864,7 +1933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2431,11 +2500,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2569,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2661,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2820,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2944,7 +3013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2979,19 +3048,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC0E310-16AE-5345-A5B9-5FFA8418B255}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="2" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3006,10 +3074,10 @@
         <v>20</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>42</v>
@@ -3023,13 +3091,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>248</v>
@@ -3043,13 +3111,13 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>249</v>
@@ -3061,6 +3129,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3263,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3339,7 +3450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3414,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -3674,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC2826C-C481-A544-B189-16EC281699E9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3860,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3617E1F-BE32-EB42-AF4A-86B4395F9829}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -4072,66 +4183,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098876D-C1F1-FB45-BEF1-7B9B504D8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBDAB2-BCE4-AA43-81A7-41E479451945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="48840" windowHeight="26960" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51560" yWindow="500" windowWidth="48840" windowHeight="26960" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="353">
   <si>
     <t>Screening</t>
   </si>
@@ -165,9 +165,6 @@
     <t>interventionModel</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -1108,6 +1105,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1235,12 +1238,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,7 +1556,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,10 +1572,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1614,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -1626,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -1635,10 +1632,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -1647,10 +1644,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1659,10 +1656,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1671,52 +1668,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -1737,10 +1734,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1799,44 +1796,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
         <v>251</v>
       </c>
-      <c r="C2" t="s">
-        <v>252</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
         <v>253</v>
       </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1865,36 +1862,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
         <v>293</v>
-      </c>
-      <c r="B2" t="s">
-        <v>294</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1903,29 +1900,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
         <v>295</v>
       </c>
-      <c r="B3" t="s">
-        <v>296</v>
-      </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1957,85 +1954,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2044,16 +2041,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2062,16 +2059,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2080,16 +2077,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2098,16 +2095,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2116,16 +2113,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2134,16 +2131,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2152,16 +2149,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2170,16 +2167,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2188,16 +2185,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2206,16 +2203,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2521,116 +2518,116 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>102</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s">
-        <v>136</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2659,65 +2656,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,137 +2747,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2907,104 +2904,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="D1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3028,18 +3025,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3051,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC0E310-16AE-5345-A5B9-5FFA8418B255}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3074,13 +3071,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3097,30 +3094,30 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3144,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3160,10 +3157,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3173,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3188,10 +3185,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -3199,10 +3196,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -3212,41 +3209,41 @@
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3254,10 +3251,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -3268,7 +3265,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -3276,10 +3273,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3287,88 +3284,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3393,19 +3424,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3413,16 +3444,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,13 +3464,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,13 +3498,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3481,10 +3512,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3503,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3514,10 +3545,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3547,68 +3578,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3617,58 +3648,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3680,7 +3711,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3702,22 +3733,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3728,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3737,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3803,135 +3834,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
         <v>321</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" t="s">
         <v>323</v>
       </c>
-      <c r="E2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>324</v>
-      </c>
-      <c r="H2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
         <v>326</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>327</v>
       </c>
-      <c r="C3" t="s">
-        <v>328</v>
-      </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
         <v>302</v>
-      </c>
-      <c r="F3" t="s">
-        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
         <v>330</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" t="s">
         <v>331</v>
       </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
         <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" t="s">
         <v>334</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
         <v>335</v>
       </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
         <v>336</v>
       </c>
-      <c r="E5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" t="s">
-        <v>337</v>
-      </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3939,31 +3970,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
         <v>338</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" t="s">
         <v>339</v>
       </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="H6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4005,179 +4036,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>267</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
         <v>269</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>270</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>273</v>
       </c>
-      <c r="H2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>274</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>275</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>276</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>277</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>278</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>279</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>280</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="22" t="s">
         <v>282</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" t="s">
-        <v>285</v>
-      </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" t="s">
         <v>272</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" t="s">
         <v>273</v>
       </c>
-      <c r="H3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" t="s">
-        <v>274</v>
-      </c>
       <c r="J3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" t="s">
         <v>286</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>287</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" t="s">
         <v>288</v>
       </c>
-      <c r="M3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N3" t="s">
-        <v>279</v>
-      </c>
-      <c r="O3" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" t="s">
-        <v>289</v>
-      </c>
       <c r="Q3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
+        <v>281</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>282</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DBDAB2-BCE4-AA43-81A7-41E479451945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5681E5-E7FD-5A4E-AA15-14359E2E56C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51560" yWindow="500" windowWidth="48840" windowHeight="26960" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1086,12 +1086,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -1111,13 +1105,19 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1153,6 +1153,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1180,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1238,6 +1245,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1996,8 +2006,8 @@
       <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>344</v>
+      <c r="E2" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>82</v>
@@ -2020,8 +2030,8 @@
       <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>345</v>
+      <c r="E3" s="24" t="s">
+        <v>352</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>83</v>
@@ -2527,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>95</v>
@@ -2545,7 +2555,7 @@
         <v>96</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2577,7 +2587,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2586,7 +2596,7 @@
         <v>129</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2595,7 +2605,7 @@
         <v>130</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2627,7 +2637,7 @@
         <v>135</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3118,7 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -3144,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3160,7 +3170,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3251,7 +3261,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>125</v>
@@ -3315,7 +3325,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -3387,11 +3397,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -3400,6 +3405,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/no_activity_sheet.xlsx
+++ b/tests/integration_test_files/no_activity_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5681E5-E7FD-5A4E-AA15-14359E2E56C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1CE3D-B795-7249-8443-0020C0C2F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -462,12 +462,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -1111,6 +1105,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1243,11 +1243,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,10 +1582,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1806,13 +1806,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>47</v>
@@ -1823,10 +1823,10 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -1837,10 +1837,10 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -1872,25 +1872,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>51</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1915,24 +1915,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
         <v>294</v>
       </c>
-      <c r="B4" t="s">
-        <v>296</v>
-      </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -1970,10 +1970,10 @@
         <v>53</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>54</v>
@@ -1985,13 +1985,13 @@
         <v>55</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>56</v>
@@ -2007,7 +2007,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>82</v>
@@ -2030,8 +2030,8 @@
       <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>352</v>
+      <c r="E3" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>83</v>
@@ -2537,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>95</v>
@@ -2555,7 +2555,7 @@
         <v>96</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2569,7 +2569,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
         <v>100</v>
@@ -2587,7 +2587,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
         <v>129</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>130</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
@@ -2637,7 +2637,7 @@
         <v>135</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2669,62 +2669,62 @@
         <v>73</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>155</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2760,134 +2760,134 @@
         <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2917,101 +2917,101 @@
         <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC0E310-16AE-5345-A5B9-5FFA8418B255}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3081,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>21</v>
@@ -3104,10 +3104,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3118,16 +3118,16 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3195,146 +3195,146 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+        <v>209</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+        <v>210</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+        <v>347</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -3354,16 +3354,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,16 +3371,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3397,6 +3397,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -3405,11 +3410,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3434,19 +3434,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3454,16 +3454,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3474,13 +3474,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3508,13 +3508,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,10 +3522,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,10 +3555,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3588,36 +3588,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>46</v>
@@ -3626,30 +3626,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3658,10 +3658,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3670,46 +3670,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3721,7 +3721,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3743,22 +3743,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3769,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3844,135 +3844,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" t="s">
-        <v>327</v>
-      </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
         <v>330</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
         <v>333</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" t="s">
         <v>334</v>
       </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>336</v>
-      </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3980,31 +3980,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
         <v>337</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" t="s">
-        <v>339</v>
-      </c>
-      <c r="H6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4046,61 +4046,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>265</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4108,58 +4108,58 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
         <v>268</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>270</v>
       </c>
-      <c r="E2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="H2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" t="s">
         <v>271</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>272</v>
       </c>
-      <c r="H2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>273</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>274</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>275</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>276</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>277</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>278</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
         <v>279</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="22" t="s">
         <v>280</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
-        <v>281</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4167,58 +4167,58 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
         <v>271</v>
       </c>
-      <c r="G3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" t="s">
-        <v>343</v>
-      </c>
-      <c r="I3" t="s">
-        <v>273</v>
-      </c>
       <c r="J3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" t="s">
         <v>285</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P3" t="s">
         <v>286</v>
       </c>
-      <c r="L3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M3" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" t="s">
-        <v>278</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" t="s">
         <v>279</v>
       </c>
-      <c r="P3" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R3" t="s">
-        <v>281</v>
-      </c>
       <c r="S3" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
